--- a/data/trans_orig/IP25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3928DF06-F85A-4546-A5F3-44CCF72CC111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBC912B-AC28-4C8D-A78D-41043B32058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AD99EF5-A403-4137-8257-2CE3E78CEE0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4222409-BFEE-4342-9EB0-A3FD5B058605}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="279">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -116,55 +116,55 @@
     <t>89,22%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -182,19 +182,19 @@
     <t>88,76%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>89,83%</t>
@@ -203,31 +203,31 @@
     <t>88,18%</t>
   </si>
   <si>
-    <t>91,35%</t>
+    <t>91,42%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>8,65%</t>
+    <t>8,58%</t>
   </si>
   <si>
     <t>11,82%</t>
@@ -248,55 +248,55 @@
     <t>82,88%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -311,286 +311,292 @@
     <t>87,54%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -605,55 +611,55 @@
     <t>95,1%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -662,49 +668,49 @@
     <t>92,56%</t>
   </si>
   <si>
-    <t>94,18%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>93,09%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,82%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>6,91%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -719,103 +725,91 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>86,24%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>83,24%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>16,76%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1293,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFD60CE-09CB-4C60-ACEB-C6360472F72A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D000F933-2D61-4C47-BADD-53DB2CBB595A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2447,7 +2441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69405E72-4EB1-4A9D-A31A-55FF5F5BA8B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A246B6B-A2A6-49B8-A48F-5B1AF5FAF110}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2832,16 +2826,16 @@
         <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>86685</v>
+        <v>86686</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>115</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
@@ -2850,13 +2844,13 @@
         <v>168119</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2865,13 @@
         <v>4759</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2886,13 +2880,13 @@
         <v>5683</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2901,13 +2895,13 @@
         <v>10442</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2928,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>18</v>
@@ -2996,7 +2990,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3026,13 +3020,13 @@
         <v>451267</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>573</v>
@@ -3041,13 +3035,13 @@
         <v>397142</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>1222</v>
@@ -3056,13 +3050,13 @@
         <v>848408</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3071,13 @@
         <v>40153</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -3092,13 +3086,13 @@
         <v>54127</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>136</v>
@@ -3107,13 +3101,13 @@
         <v>94281</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,7 +3181,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3217,7 +3211,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3226,13 @@
         <v>151510</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -3247,13 +3241,13 @@
         <v>149054</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -3262,13 +3256,13 @@
         <v>300565</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3277,13 @@
         <v>20718</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -3298,10 +3292,10 @@
         <v>17758</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>163</v>
@@ -3441,10 +3435,10 @@
         <v>167</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H21" s="7">
         <v>909</v>
@@ -3453,13 +3447,13 @@
         <v>632881</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M21" s="7">
         <v>1887</v>
@@ -3468,13 +3462,13 @@
         <v>1317733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3483,13 @@
         <v>65630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -3504,13 +3498,13 @@
         <v>77569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -3519,13 +3513,13 @@
         <v>143198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AEB141-B725-4122-A5ED-6E4C1336E4CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D17B833-ED4A-4E5D-B12E-58C706311C4F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3913,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3928,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3943,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3952,13 @@
         <v>65254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>79</v>
@@ -3973,13 +3967,13 @@
         <v>53007</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>173</v>
@@ -3988,13 +3982,13 @@
         <v>118262</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4003,13 @@
         <v>3360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4024,13 +4018,13 @@
         <v>6371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -4039,13 +4033,13 @@
         <v>9731</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4164,13 +4158,13 @@
         <v>452361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>646</v>
@@ -4179,13 +4173,13 @@
         <v>430785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>1288</v>
@@ -4194,13 +4188,13 @@
         <v>883146</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4209,13 @@
         <v>36374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4230,13 +4224,13 @@
         <v>41505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -4245,13 +4239,13 @@
         <v>77879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4340,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4355,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4364,13 @@
         <v>162599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -4385,13 +4379,13 @@
         <v>148940</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>458</v>
@@ -4400,13 +4394,13 @@
         <v>311538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4415,13 @@
         <v>24896</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -4436,13 +4430,13 @@
         <v>23763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -4451,10 +4445,10 @@
         <v>48659</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>242</v>
@@ -4606,13 +4600,13 @@
         <v>1312946</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4621,13 @@
         <v>64630</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -4645,10 +4639,10 @@
         <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -4657,13 +4651,13 @@
         <v>136269</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,7 +4733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FB16E9-0137-4E9C-9147-925902ADDE0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8787BAF-BEC0-44D1-B383-5B743775EA9D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4756,7 +4750,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5064,7 +5058,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -5079,7 +5073,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -5094,7 +5088,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -5118,37 +5112,37 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,37 +5163,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,7 +5264,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>18</v>
@@ -5285,7 +5279,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>18</v>
@@ -5300,7 +5294,7 @@
         <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>18</v>
@@ -5324,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5339,7 +5333,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5354,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5369,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5390,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5405,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -5491,7 +5485,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -5506,7 +5500,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -5530,37 +5524,37 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,37 +5575,37 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,7 +5676,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>18</v>
@@ -5697,7 +5691,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -5712,7 +5706,7 @@
         <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>18</v>
@@ -5736,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5751,7 +5745,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5766,7 +5760,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5781,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5802,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5817,7 +5811,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBC912B-AC28-4C8D-A78D-41043B32058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F09E66-C348-4571-B4D9-739A007D2685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4222409-BFEE-4342-9EB0-A3FD5B058605}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8A07B683-EC8F-4F25-B1E1-5540C779A815}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="275">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>994.0</t>
@@ -80,765 +80,753 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
     <t>98,75%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>1,25%</t>
   </si>
   <si>
+    <t>99,7%</t>
+  </si>
+  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
@@ -848,19 +836,19 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,59%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -1287,8 +1275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D000F933-2D61-4C47-BADD-53DB2CBB595A}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890AFAFE-3577-45F6-BD8E-43D5F42DEB59}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1422,12 +1410,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1445,105 +1435,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>84448</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>77482</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>161930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>6419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9363</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>15782</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,52 +1546,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86845</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N7" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1615,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1630,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1645,109 +1641,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>570</v>
       </c>
       <c r="D9" s="7">
-        <v>77481</v>
+        <v>378851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>126</v>
+        <v>639</v>
       </c>
       <c r="I9" s="7">
-        <v>84448</v>
+        <v>423358</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>242</v>
+        <v>1209</v>
       </c>
       <c r="N9" s="7">
-        <v>161930</v>
+        <v>802209</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>9363</v>
+        <v>37236</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>6419</v>
+        <v>53633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="N10" s="7">
-        <v>15782</v>
+        <v>90869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,54 +1752,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I11" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N11" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1821,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1836,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1851,109 +1847,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>639</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7">
-        <v>423358</v>
+        <v>150451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>570</v>
+        <v>195</v>
       </c>
       <c r="I13" s="7">
-        <v>378851</v>
+        <v>131063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>1209</v>
+        <v>414</v>
       </c>
       <c r="N13" s="7">
-        <v>802209</v>
+        <v>281514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>22171</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7">
+        <v>27075</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="7">
+        <v>74</v>
+      </c>
+      <c r="N14" s="7">
+        <v>49247</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D14" s="7">
-        <v>53633</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="7">
-        <v>58</v>
-      </c>
-      <c r="I14" s="7">
-        <v>37236</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14" s="7">
-        <v>138</v>
-      </c>
-      <c r="N14" s="7">
-        <v>90869</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,54 +1958,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>719</v>
+        <v>252</v>
       </c>
       <c r="D15" s="7">
-        <v>476991</v>
+        <v>172622</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I15" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1347</v>
+        <v>488</v>
       </c>
       <c r="N15" s="7">
-        <v>893078</v>
+        <v>330761</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2027,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2042,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2057,109 +2053,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>195</v>
+        <v>915</v>
       </c>
       <c r="D17" s="7">
-        <v>131063</v>
+        <v>613750</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>219</v>
+        <v>950</v>
       </c>
       <c r="I17" s="7">
-        <v>150451</v>
+        <v>631903</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>414</v>
+        <v>1865</v>
       </c>
       <c r="N17" s="7">
-        <v>281514</v>
+        <v>1245653</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D18" s="7">
-        <v>27075</v>
+        <v>65827</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="I18" s="7">
-        <v>22171</v>
+        <v>90071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="N18" s="7">
-        <v>49247</v>
+        <v>155898</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,267 +2164,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="D19" s="7">
-        <v>158138</v>
+        <v>679577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>252</v>
+        <v>1085</v>
       </c>
       <c r="I19" s="7">
-        <v>172622</v>
+        <v>721974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>488</v>
+        <v>2101</v>
       </c>
       <c r="N19" s="7">
-        <v>330761</v>
+        <v>1401551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>951</v>
-      </c>
-      <c r="D21" s="7">
-        <v>632629</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>613750</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1246379</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>135</v>
-      </c>
-      <c r="D22" s="7">
-        <v>90071</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="7">
-        <v>101</v>
-      </c>
-      <c r="I22" s="7">
-        <v>65827</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="7">
-        <v>236</v>
-      </c>
-      <c r="N22" s="7">
-        <v>155898</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D23" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I23" s="7">
-        <v>679577</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2102</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1402277</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2441,8 +2230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A246B6B-A2A6-49B8-A48F-5B1AF5FAF110}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5720E7C9-AB1D-46EF-999C-F3DB71826BBD}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2458,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2571,20 +2360,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2599,105 +2390,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>86686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="I5" s="7">
+        <v>81433</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>168119</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>5683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4759</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>10442</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,52 +2501,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86192</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2769,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2784,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2799,109 +2596,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>114</v>
+        <v>573</v>
       </c>
       <c r="D9" s="7">
-        <v>81433</v>
+        <v>397142</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7">
-        <v>126</v>
+        <v>649</v>
       </c>
       <c r="I9" s="7">
-        <v>86686</v>
+        <v>451267</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
-        <v>240</v>
+        <v>1222</v>
       </c>
       <c r="N9" s="7">
-        <v>168119</v>
+        <v>848408</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>4759</v>
+        <v>54127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>5683</v>
+        <v>40153</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="N10" s="7">
-        <v>10442</v>
+        <v>94281</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,54 +2707,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>86192</v>
+        <v>451269</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>704</v>
       </c>
       <c r="I11" s="7">
-        <v>92369</v>
+        <v>491420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>255</v>
+        <v>1358</v>
       </c>
       <c r="N11" s="7">
-        <v>178561</v>
+        <v>942689</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2975,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2990,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3005,109 +2802,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>649</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>451267</v>
+        <v>149054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
-        <v>573</v>
+        <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>397142</v>
+        <v>151510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
-        <v>1222</v>
+        <v>424</v>
       </c>
       <c r="N13" s="7">
-        <v>848408</v>
+        <v>300565</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>40153</v>
+        <v>17758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>54127</v>
+        <v>20718</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="N14" s="7">
-        <v>94281</v>
+        <v>38476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,54 +2913,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>704</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>491420</v>
+        <v>166812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>654</v>
+        <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>451269</v>
+        <v>172228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1358</v>
+        <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>942689</v>
+        <v>339041</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3181,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3196,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3211,109 +3008,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>214</v>
+        <v>909</v>
       </c>
       <c r="D17" s="7">
-        <v>151510</v>
+        <v>632881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
-        <v>210</v>
+        <v>977</v>
       </c>
       <c r="I17" s="7">
-        <v>149054</v>
+        <v>684211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
-        <v>424</v>
+        <v>1886</v>
       </c>
       <c r="N17" s="7">
-        <v>300565</v>
+        <v>1317092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D18" s="7">
-        <v>20718</v>
+        <v>77569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I18" s="7">
-        <v>17758</v>
+        <v>65630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="N18" s="7">
-        <v>38476</v>
+        <v>143198</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,267 +3119,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>244</v>
+        <v>1024</v>
       </c>
       <c r="D19" s="7">
-        <v>172228</v>
+        <v>710450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>1069</v>
       </c>
       <c r="I19" s="7">
-        <v>166812</v>
+        <v>749841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>480</v>
+        <v>2093</v>
       </c>
       <c r="N19" s="7">
-        <v>339041</v>
+        <v>1460290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>978</v>
-      </c>
-      <c r="D21" s="7">
-        <v>684852</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="7">
-        <v>909</v>
-      </c>
-      <c r="I21" s="7">
-        <v>632881</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1317733</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>92</v>
-      </c>
-      <c r="D22" s="7">
-        <v>65630</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="7">
-        <v>115</v>
-      </c>
-      <c r="I22" s="7">
-        <v>77569</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M22" s="7">
-        <v>207</v>
-      </c>
-      <c r="N22" s="7">
-        <v>143198</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D23" s="7">
-        <v>750482</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710450</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1460931</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3595,8 +3185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D17B833-ED4A-4E5D-B12E-58C706311C4F}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397155F8-12FA-4744-82AB-8481960EE36E}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3612,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3715,131 +3305,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53007</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65254</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="N5" s="7">
+        <v>118262</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6371</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3360</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="N6" s="7">
+        <v>9731</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,48 +3456,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="7">
+        <v>59378</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="7">
+        <v>68614</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N7" s="7">
+        <v>127993</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3907,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3922,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3937,109 +3551,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>94</v>
+        <v>646</v>
       </c>
       <c r="D9" s="7">
-        <v>65254</v>
+        <v>430785</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="I9" s="7">
-        <v>53007</v>
+        <v>452361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
-        <v>173</v>
+        <v>1288</v>
       </c>
       <c r="N9" s="7">
-        <v>118262</v>
+        <v>883146</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>3360</v>
+        <v>41505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>6371</v>
+        <v>36374</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="N10" s="7">
-        <v>9731</v>
+        <v>77879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,54 +3662,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D11" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I11" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N11" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4113,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4128,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4143,109 +3757,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>642</v>
+        <v>223</v>
       </c>
       <c r="D13" s="7">
-        <v>452361</v>
+        <v>148940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
-        <v>646</v>
+        <v>235</v>
       </c>
       <c r="I13" s="7">
-        <v>430785</v>
+        <v>162599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>1288</v>
+        <v>458</v>
       </c>
       <c r="N13" s="7">
-        <v>883146</v>
+        <v>311538</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>36374</v>
+        <v>23763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>41505</v>
+        <v>24896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="N14" s="7">
-        <v>77879</v>
+        <v>48659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,54 +3868,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D15" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4319,7 +3933,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4334,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4349,109 +3963,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>235</v>
+        <v>948</v>
       </c>
       <c r="D17" s="7">
-        <v>162599</v>
+        <v>632732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
-        <v>223</v>
+        <v>971</v>
       </c>
       <c r="I17" s="7">
-        <v>148940</v>
+        <v>680214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
-        <v>458</v>
+        <v>1919</v>
       </c>
       <c r="N17" s="7">
-        <v>311538</v>
+        <v>1312946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>24896</v>
+        <v>71639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I18" s="7">
-        <v>23763</v>
+        <v>64630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="N18" s="7">
-        <v>48659</v>
+        <v>136269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,267 +4074,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I19" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N19" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>971</v>
-      </c>
-      <c r="D21" s="7">
-        <v>680214</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H21" s="7">
-        <v>948</v>
-      </c>
-      <c r="I21" s="7">
-        <v>632732</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1312946</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>94</v>
-      </c>
-      <c r="D22" s="7">
-        <v>64630</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H22" s="7">
-        <v>113</v>
-      </c>
-      <c r="I22" s="7">
-        <v>71639</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M22" s="7">
-        <v>207</v>
-      </c>
-      <c r="N22" s="7">
-        <v>136269</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D23" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4733,8 +4140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8787BAF-BEC0-44D1-B383-5B743775EA9D}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E79038E-7341-4ECA-A353-43938BE621E2}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4750,7 +4157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4851,66 +4258,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D4" s="7">
+        <v>54678</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4925,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4940,26 +4351,28 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4974,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4989,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,106 +4411,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D8" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I8" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N8" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5112,7 +4527,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5127,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5142,13 +4557,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5163,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5178,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5193,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,108 +4617,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5318,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5333,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5348,13 +4763,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5369,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5384,7 +4799,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5399,7 +4814,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,108 +4823,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D16" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I16" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N16" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -5524,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5560,7 +4975,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -5575,7 +4990,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5614,267 +5029,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>977</v>
-      </c>
-      <c r="D20" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="7">
-        <v>943</v>
-      </c>
-      <c r="I20" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>977</v>
-      </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
-      <c r="I23" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
